--- a/d.xlsx
+++ b/d.xlsx
@@ -5,35 +5,43 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\GIT HUB-dg\Data-Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B821C3-0835-4AA8-AAA8-40721EC63041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA09F36-86BF-4BB7-9AEC-01188E401A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Basic Data Entry" sheetId="2" r:id="rId2"/>
+    <sheet name="BAsic Data Entry 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$81:$C$84</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$80</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$81:$D$84</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$81:$C$84</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$80</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$81:$D$84</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="115">
   <si>
     <t>Month</t>
   </si>
@@ -181,12 +189,213 @@
   <si>
     <t>Games</t>
   </si>
+  <si>
+    <t>Sr.No.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ram </t>
+  </si>
+  <si>
+    <t>Shyam</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Naresh</t>
+  </si>
+  <si>
+    <t>Geeta</t>
+  </si>
+  <si>
+    <t>Sita</t>
+  </si>
+  <si>
+    <t>jai</t>
+  </si>
+  <si>
+    <t>Smit</t>
+  </si>
+  <si>
+    <t>Dhairya</t>
+  </si>
+  <si>
+    <t>Om</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ram@gmail.com</t>
+  </si>
+  <si>
+    <t>shyam@gmail.com</t>
+  </si>
+  <si>
+    <t>mohan@gmail.com</t>
+  </si>
+  <si>
+    <t>naresh@gmail.com</t>
+  </si>
+  <si>
+    <t>geeta@gmail.com</t>
+  </si>
+  <si>
+    <t>sita@gmail.com</t>
+  </si>
+  <si>
+    <t>jai@gmail.com</t>
+  </si>
+  <si>
+    <t>smit@gmail.com</t>
+  </si>
+  <si>
+    <t>dhairya@gmail.com</t>
+  </si>
+  <si>
+    <t>om@gmail.com</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>Shah</t>
+  </si>
+  <si>
+    <t>Gehlot</t>
+  </si>
+  <si>
+    <t>Lalwani</t>
+  </si>
+  <si>
+    <t>Joshi</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>Malhotra</t>
+  </si>
+  <si>
+    <t>Tripathi</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Mobile No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name as Values </t>
+  </si>
+  <si>
+    <t>Ram  Patel</t>
+  </si>
+  <si>
+    <t>Shyam Shah</t>
+  </si>
+  <si>
+    <t>Mohan Gehlot</t>
+  </si>
+  <si>
+    <t>Naresh Patel</t>
+  </si>
+  <si>
+    <t>Geeta Lalwani</t>
+  </si>
+  <si>
+    <t>Sita Joshi</t>
+  </si>
+  <si>
+    <t>jai Dave</t>
+  </si>
+  <si>
+    <t>Smit Malhotra</t>
+  </si>
+  <si>
+    <t>Dhairya Gehlot</t>
+  </si>
+  <si>
+    <t>Om Tripathi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split First Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split Last Name </t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Email.Id</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Top Level Domain</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>shyam</t>
+  </si>
+  <si>
+    <t>mohan</t>
+  </si>
+  <si>
+    <t>naresh</t>
+  </si>
+  <si>
+    <t>geeta</t>
+  </si>
+  <si>
+    <t>sita</t>
+  </si>
+  <si>
+    <t>smit</t>
+  </si>
+  <si>
+    <t>dhairya</t>
+  </si>
+  <si>
+    <t>om</t>
+  </si>
+  <si>
+    <t>gmail</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +415,26 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,8 +453,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -305,11 +550,147 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -350,58 +731,72 @@
     <xf numFmtId="9" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="48">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF1F2328"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFD1D9E0"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFD1D9E0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <border outline="0">
         <top style="medium">
           <color rgb="FFD1D9E0"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFD1D9E0"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -415,6 +810,13 @@
         <top style="medium">
           <color rgb="FFD1D9E0"/>
         </top>
+        <bottom style="medium">
+          <color rgb="FFD1D9E0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color rgb="FFD1D9E0"/>
         </bottom>
@@ -464,13 +866,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFD1D9E0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FFD1D9E0"/>
         </left>
@@ -480,6 +875,13 @@
         <top style="medium">
           <color rgb="FFD1D9E0"/>
         </top>
+        <bottom style="medium">
+          <color rgb="FFD1D9E0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color rgb="FFD1D9E0"/>
         </bottom>
@@ -607,13 +1009,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFD1D9E0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FFD1D9E0"/>
         </left>
@@ -623,6 +1018,13 @@
         <top style="medium">
           <color rgb="FFD1D9E0"/>
         </top>
+        <bottom style="medium">
+          <color rgb="FFD1D9E0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color rgb="FFD1D9E0"/>
         </bottom>
@@ -672,13 +1074,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFD1D9E0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FFD1D9E0"/>
         </left>
@@ -688,6 +1083,13 @@
         <top style="medium">
           <color rgb="FFD1D9E0"/>
         </top>
+        <bottom style="medium">
+          <color rgb="FFD1D9E0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color rgb="FFD1D9E0"/>
         </bottom>
@@ -737,13 +1139,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFD1D9E0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FFD1D9E0"/>
         </left>
@@ -753,6 +1148,13 @@
         <top style="medium">
           <color rgb="FFD1D9E0"/>
         </top>
+        <bottom style="medium">
+          <color rgb="FFD1D9E0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color rgb="FFD1D9E0"/>
         </bottom>
@@ -802,13 +1204,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFD1D9E0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FFD1D9E0"/>
         </left>
@@ -818,6 +1213,13 @@
         <top style="medium">
           <color rgb="FFD1D9E0"/>
         </top>
+        <bottom style="medium">
+          <color rgb="FFD1D9E0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color rgb="FFD1D9E0"/>
         </bottom>
@@ -945,13 +1347,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFD1D9E0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FFD1D9E0"/>
         </left>
@@ -961,6 +1356,13 @@
         <top style="medium">
           <color rgb="FFD1D9E0"/>
         </top>
+        <bottom style="medium">
+          <color rgb="FFD1D9E0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color rgb="FFD1D9E0"/>
         </bottom>
@@ -1010,13 +1412,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFD1D9E0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FFD1D9E0"/>
         </left>
@@ -1026,6 +1421,13 @@
         <top style="medium">
           <color rgb="FFD1D9E0"/>
         </top>
+        <bottom style="medium">
+          <color rgb="FFD1D9E0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color rgb="FFD1D9E0"/>
         </bottom>
@@ -1153,13 +1555,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFD1D9E0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FFD1D9E0"/>
         </left>
@@ -1169,6 +1564,13 @@
         <top style="medium">
           <color rgb="FFD1D9E0"/>
         </top>
+        <bottom style="medium">
+          <color rgb="FFD1D9E0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color rgb="FFD1D9E0"/>
         </bottom>
@@ -1296,13 +1698,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFD1D9E0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FFD1D9E0"/>
         </left>
@@ -1315,6 +1710,48 @@
         <bottom style="medium">
           <color rgb="FFD1D9E0"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFD1D9E0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFD1D9E0"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFD1D9E0"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -2309,6 +2746,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-ADF7-4DA3-BA0A-45439B372942}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2324,6 +2766,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-ADF7-4DA3-BA0A-45439B372942}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2339,6 +2786,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-ADF7-4DA3-BA0A-45439B372942}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2354,6 +2806,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-ADF7-4DA3-BA0A-45439B372942}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2369,6 +2826,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-ADF7-4DA3-BA0A-45439B372942}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2597,6 +3059,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BE17-41F9-870E-4C3969FFAB04}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2612,6 +3079,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BE17-41F9-870E-4C3969FFAB04}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2627,6 +3099,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BE17-41F9-870E-4C3969FFAB04}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2642,6 +3119,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-BE17-41F9-870E-4C3969FFAB04}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3744,6 +4226,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-02B4-442B-B0D7-3EBAD6BDBCF5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3759,6 +4246,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-02B4-442B-B0D7-3EBAD6BDBCF5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3774,6 +4266,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-02B4-442B-B0D7-3EBAD6BDBCF5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3789,6 +4286,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-02B4-442B-B0D7-3EBAD6BDBCF5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -9716,7 +10218,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4705350" y="16178212"/>
+              <a:off x="4705350" y="15740062"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9895,18 +10397,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E330D1A-6157-44C6-8DFB-13E8C740478F}" name="Table1" displayName="Table1" ref="A1:B6" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="46" tableBorderDxfId="47" totalsRowBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E330D1A-6157-44C6-8DFB-13E8C740478F}" name="Table1" displayName="Table1" ref="A1:B6" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44">
   <autoFilter ref="A1:B6" xr:uid="{8E330D1A-6157-44C6-8DFB-13E8C740478F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{15E89E4E-3D36-4582-BDF1-22E12622A20C}" name="Month" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{583D5BBC-297D-4829-BE1A-99FDCD16AE1F}" name="Attendance (%)" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{15E89E4E-3D36-4582-BDF1-22E12622A20C}" name="Month" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{583D5BBC-297D-4829-BE1A-99FDCD16AE1F}" name="Attendance (%)" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{98F2B13E-4228-4DF5-B815-75D8880FD93A}" name="Table10" displayName="Table10" ref="C145:D149" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{98F2B13E-4228-4DF5-B815-75D8880FD93A}" name="Table10" displayName="Table10" ref="C145:D149" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1" totalsRowBorderDxfId="0">
   <autoFilter ref="C145:D149" xr:uid="{98F2B13E-4228-4DF5-B815-75D8880FD93A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A2FCEA82-50ED-470B-BF51-C725FC7A6828}" name="Purpose"/>
@@ -9917,18 +10419,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{360DCA38-8507-4BBC-92F9-7AA16ACE046A}" name="Table2" displayName="Table2" ref="B18:C23" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="40" tableBorderDxfId="41" totalsRowBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{360DCA38-8507-4BBC-92F9-7AA16ACE046A}" name="Table2" displayName="Table2" ref="B18:C23" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39" totalsRowBorderDxfId="38">
   <autoFilter ref="B18:C23" xr:uid="{360DCA38-8507-4BBC-92F9-7AA16ACE046A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{55A28BB6-2D2D-4F42-9DC4-23BD7668B5C1}" name="Subject" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{1511BC29-9781-4A87-BB9E-BC8BD6CB8E38}" name="Marks" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{55A28BB6-2D2D-4F42-9DC4-23BD7668B5C1}" name="Subject" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{1511BC29-9781-4A87-BB9E-BC8BD6CB8E38}" name="Marks" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{410FCCB6-EE89-4A68-AB84-16E439ADCF4F}" name="Table3" displayName="Table3" ref="C35:D39" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="34" tableBorderDxfId="35" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{410FCCB6-EE89-4A68-AB84-16E439ADCF4F}" name="Table3" displayName="Table3" ref="C35:D39" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
   <autoFilter ref="C35:D39" xr:uid="{410FCCB6-EE89-4A68-AB84-16E439ADCF4F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DBE7AD87-5FC6-4B47-94FA-ED7DC94DAAA4}" name="Batch"/>
@@ -9939,18 +10441,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{412171CB-1961-46A0-AC67-86F17F7F6291}" name="Table4" displayName="Table4" ref="C53:D58" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="30" tableBorderDxfId="31" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{412171CB-1961-46A0-AC67-86F17F7F6291}" name="Table4" displayName="Table4" ref="C53:D58" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
   <autoFilter ref="C53:D58" xr:uid="{412171CB-1961-46A0-AC67-86F17F7F6291}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7B578EE5-DA0E-4D97-B85D-57645DF33113}" name="Activity" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{E2FDF227-FD3F-4860-90C3-03CA50200A94}" name="Hours" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{7B578EE5-DA0E-4D97-B85D-57645DF33113}" name="Activity" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{E2FDF227-FD3F-4860-90C3-03CA50200A94}" name="Hours" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B44E2809-6C0B-41E4-917B-9B6F08CCEB7F}" name="Table5" displayName="Table5" ref="C67:D71" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="24" tableBorderDxfId="25" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B44E2809-6C0B-41E4-917B-9B6F08CCEB7F}" name="Table5" displayName="Table5" ref="C67:D71" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="C67:D71" xr:uid="{B44E2809-6C0B-41E4-917B-9B6F08CCEB7F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C253162F-3462-49C9-BE59-18D6355981BC}" name="Course"/>
@@ -9961,7 +10463,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{690EF64A-821D-4222-9979-F44B59877D52}" name="Table6" displayName="Table6" ref="C80:D84" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{690EF64A-821D-4222-9979-F44B59877D52}" name="Table6" displayName="Table6" ref="C80:D84" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="C80:D84" xr:uid="{690EF64A-821D-4222-9979-F44B59877D52}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{AB818A7D-37B7-47FB-A64F-747147D85FCF}" name="Marks Range"/>
@@ -9972,7 +10474,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C2EE29E2-C319-4DEB-A2F4-504AC3B275B2}" name="Table7" displayName="Table7" ref="C95:D99" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C2EE29E2-C319-4DEB-A2F4-504AC3B275B2}" name="Table7" displayName="Table7" ref="C95:D99" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="C95:D99" xr:uid="{C2EE29E2-C319-4DEB-A2F4-504AC3B275B2}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{97FD6945-EFD6-47CA-B223-726414699CB3}" name="Month"/>
@@ -9983,18 +10485,18 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A50492BB-9F86-4BA5-87EE-F44D87ACDD25}" name="Table8" displayName="Table8" ref="C113:D118" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A50492BB-9F86-4BA5-87EE-F44D87ACDD25}" name="Table8" displayName="Table8" ref="C113:D118" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="C113:D118" xr:uid="{A50492BB-9F86-4BA5-87EE-F44D87ACDD25}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B96A3A73-8547-4A57-8975-B8EFE22C1581}" name="Year" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{B50FE801-3CF4-4B71-B61E-13805780ECEB}" name="Users" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{B96A3A73-8547-4A57-8975-B8EFE22C1581}" name="Year" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{B50FE801-3CF4-4B71-B61E-13805780ECEB}" name="Users" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D64D67EC-2C73-4D6D-8856-FFA8EF349CD6}" name="Table9" displayName="Table9" ref="C128:D132" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D64D67EC-2C73-4D6D-8856-FFA8EF349CD6}" name="Table9" displayName="Table9" ref="C128:D132" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="C128:D132" xr:uid="{D64D67EC-2C73-4D6D-8856-FFA8EF349CD6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D0647644-7D3F-436F-91B0-6F3C1575525A}" name="Time"/>
@@ -10269,7 +10771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -10488,7 +10990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>29</v>
       </c>
@@ -10496,7 +10998,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C69" s="2" t="s">
         <v>30</v>
       </c>
@@ -10766,4 +11268,1209 @@
     <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC099FCE-3A70-47FF-88EF-9BA5CCE175C0}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="18">
+        <v>21</v>
+      </c>
+      <c r="D2" s="20">
+        <v>34830</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="18">
+        <v>20</v>
+      </c>
+      <c r="D3" s="20">
+        <v>24242</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="18">
+        <v>30</v>
+      </c>
+      <c r="D4" s="20">
+        <v>27662</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="18">
+        <v>25</v>
+      </c>
+      <c r="D5" s="20">
+        <v>32029</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="18">
+        <v>24</v>
+      </c>
+      <c r="D6" s="20">
+        <v>20784</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="18">
+        <v>23</v>
+      </c>
+      <c r="D7" s="20">
+        <v>40580</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="18">
+        <v>30</v>
+      </c>
+      <c r="D8" s="20">
+        <v>28967</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="18">
+        <v>26</v>
+      </c>
+      <c r="D9" s="20">
+        <v>33787</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="18">
+        <v>25</v>
+      </c>
+      <c r="D10" s="20">
+        <v>32975</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="18">
+        <v>27</v>
+      </c>
+      <c r="D11" s="20">
+        <v>45643</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30">
+        <f>SUM(C1:C11)</f>
+        <v>251</v>
+      </c>
+      <c r="D12" s="31">
+        <f>SUM(D1:D11)</f>
+        <v>321499</v>
+      </c>
+      <c r="E12" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{A5A4C2FC-BDC3-490F-B031-B0C57E850AFA}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{FB31E515-0428-438C-A9B1-8350FACEF66A}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{6A9E6CA7-32CA-422C-ADAE-1D22B7487A40}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{C61F1689-6CE6-48C6-A9D6-DABE132C7059}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{B3E975E4-6630-477F-A0ED-5CB32E889D14}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{055A14B0-04DA-4485-9DB7-57DE9D213DF2}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{545E0A63-A5F1-4FDD-8164-A0436E989159}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{4B7CAE44-FB6F-43D5-9996-49B2D41C2370}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{6BAFA4F0-5E10-4BD0-A5D2-BDD2450DFF27}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{D6E2DCE5-9E9C-46B4-AC3D-43E262F9A191}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2150F61D-F1D8-456E-BC09-BB33D0385370}">
+  <dimension ref="A1:O49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="18" t="str">
+        <f>_xlfn.CONCAT(B2," ",C2)</f>
+        <v>Ram  Patel</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" s="18">
+        <v>9301816152</v>
+      </c>
+      <c r="N2" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="18" t="str">
+        <f t="shared" ref="D3:D11" si="0">_xlfn.CONCAT(B3," ",C3)</f>
+        <v>Shyam Shah</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="M3" s="18">
+        <v>9655912735</v>
+      </c>
+      <c r="N3" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Mohan Gehlot</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="18">
+        <v>9499232192</v>
+      </c>
+      <c r="N4" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Naresh Patel</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" s="18">
+        <v>9898481097</v>
+      </c>
+      <c r="N5" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Geeta Lalwani</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6" s="18">
+        <v>9634922929</v>
+      </c>
+      <c r="N6" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Sita Joshi</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="18">
+        <v>9871623223</v>
+      </c>
+      <c r="N7" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>jai Dave</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="M8" s="18">
+        <v>9843807811</v>
+      </c>
+      <c r="N8" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Smit Malhotra</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" s="18">
+        <v>9260225025</v>
+      </c>
+      <c r="N9" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Dhairya Gehlot</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" s="18">
+        <v>9702164866</v>
+      </c>
+      <c r="N10" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Om Tripathi</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" s="18">
+        <v>9936045741</v>
+      </c>
+      <c r="N11" s="18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16">
+        <f>SUM(N1:N11)</f>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>1</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="18" t="str">
+        <f>_xlfn.CONCAT(B22," ",C22)</f>
+        <v>Ram  Patel</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>2</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="18" t="str">
+        <f t="shared" ref="D23:D31" si="1">_xlfn.CONCAT(B23," ",C23)</f>
+        <v>Shyam Shah</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>3</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Mohan Gehlot</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>4</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Naresh Patel</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>5</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Geeta Lalwani</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>6</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Sita Joshi</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>7</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>jai Dave</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>8</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Smit Malhotra</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>9</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Dhairya Gehlot</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>10</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Om Tripathi</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A32:B32"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{D5D2C346-3734-4AC4-A885-6B9A8F3A2396}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{CE36573B-97CA-4724-A345-5CCF7941A0CA}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{9165056D-D406-4113-B3ED-00C66A29CB8C}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{18274A7C-72E3-4CDB-B228-8AC5C032867F}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{83B7EE4D-AE60-4C34-8DD7-83541B6E41C0}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{B9AF8A4E-F07B-4C4F-B986-D8CD89987ECB}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{E447F702-5813-45B9-BF8A-C8030CCD9D3B}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{0958B25B-4216-4365-8903-A64F91109724}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{399E77AB-33C5-4321-917E-BF8501BCD16F}"/>
+    <hyperlink ref="I11" r:id="rId10" xr:uid="{4670B85E-020F-43BE-A944-F60779331C85}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6122DC-1840-4239-99B9-80EAE8EA7DDF}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{04D61E08-975C-49E6-9E18-451D008A6528}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{42DA9FC2-740C-4965-AEC3-D062A62476B6}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{C86BB707-E3AB-49E2-8214-38B68CEFD435}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{12DB4981-AE5A-4468-93B9-0787F88770FB}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{DDF41EF6-50E3-4424-B651-C6A15AC9388F}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{56352E14-06D5-4D10-AC88-F0649BB9503D}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{F90C590B-7ECE-44FB-9561-AB65E4A62931}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{941CE6E2-A027-435F-9BE1-B0C5E33BBC3A}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{42795ABB-39E2-49E4-91DC-C65D318EF6A2}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{C58C5A0F-DF8E-4790-989C-EEA6050A7B0A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/d.xlsx
+++ b/d.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\GIT HUB-dg\Data-Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA09F36-86BF-4BB7-9AEC-01188E401A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F68670-5C3A-4352-9061-AFEBDE3A7C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Basic Data Entry" sheetId="2" r:id="rId2"/>
     <sheet name="BAsic Data Entry 2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="task" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$81:$C$84</definedName>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="196">
   <si>
     <t>Month</t>
   </si>
@@ -386,20 +389,268 @@
   </si>
   <si>
     <t>com</t>
+  </si>
+  <si>
+    <t>24.01.2026</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Joining Date</t>
+  </si>
+  <si>
+    <t>E101</t>
+  </si>
+  <si>
+    <t>Amit Sharma</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>E102</t>
+  </si>
+  <si>
+    <t>Neha Verma</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>E103</t>
+  </si>
+  <si>
+    <t>Rahul Mehta</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>E104</t>
+  </si>
+  <si>
+    <t>Pooja Singh</t>
+  </si>
+  <si>
+    <t>E105</t>
+  </si>
+  <si>
+    <t>Ankit Patel</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>E106</t>
+  </si>
+  <si>
+    <t>E107</t>
+  </si>
+  <si>
+    <t>E108</t>
+  </si>
+  <si>
+    <t>E109</t>
+  </si>
+  <si>
+    <t>E110</t>
+  </si>
+  <si>
+    <t>E111</t>
+  </si>
+  <si>
+    <t>E112</t>
+  </si>
+  <si>
+    <t>E113</t>
+  </si>
+  <si>
+    <t>E114</t>
+  </si>
+  <si>
+    <t>E115</t>
+  </si>
+  <si>
+    <t>E116</t>
+  </si>
+  <si>
+    <t>E117</t>
+  </si>
+  <si>
+    <t>E118</t>
+  </si>
+  <si>
+    <t>E119</t>
+  </si>
+  <si>
+    <t>E120</t>
+  </si>
+  <si>
+    <t>Riya Paatel</t>
+  </si>
+  <si>
+    <t>Zoya Patel</t>
+  </si>
+  <si>
+    <t>Divya Soni</t>
+  </si>
+  <si>
+    <t>Ram Patel</t>
+  </si>
+  <si>
+    <t>Smith  Shah</t>
+  </si>
+  <si>
+    <t>Padm Shah</t>
+  </si>
+  <si>
+    <t>Neev Joshi</t>
+  </si>
+  <si>
+    <t>Harsh Tayal</t>
+  </si>
+  <si>
+    <t>Nirvaan Shamal</t>
+  </si>
+  <si>
+    <t>Yashvi Patel</t>
+  </si>
+  <si>
+    <t>Visva Thakkar</t>
+  </si>
+  <si>
+    <t>Jiya shah</t>
+  </si>
+  <si>
+    <t>Gautam Adani</t>
+  </si>
+  <si>
+    <t>Anne Frank</t>
+  </si>
+  <si>
+    <t>Format header row (Bold, Color)</t>
+  </si>
+  <si>
+    <t>Salary → Currency (₹)</t>
+  </si>
+  <si>
+    <t>Date → Date format</t>
+  </si>
+  <si>
+    <t>Apply borders and auto-fit columns</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Sales Amount</t>
+  </si>
+  <si>
+    <t>Salesperson</t>
+  </si>
+  <si>
+    <t>Laptop Dell Inspiron 15</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>HP Wireless Mouse</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>Samsung 24-inch Monitor</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad E14 Laptop</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>Kavita</t>
+  </si>
+  <si>
+    <t>Monthly Sales Report</t>
+  </si>
+  <si>
+    <t>Laptop Dell Inspiron 16</t>
+  </si>
+  <si>
+    <t>Laptop Dell Inspiron 17</t>
+  </si>
+  <si>
+    <t>Laptop Dell Inspiron 18</t>
+  </si>
+  <si>
+    <t>Laptop Dell Inspiron 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add title Monthly Sales Report
+Merge &amp; center title
+Wrap text for product names
+Currency format for sales
+</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>Aakash</t>
+  </si>
+  <si>
+    <t>Bhavya</t>
+  </si>
+  <si>
+    <t>Chirag</t>
+  </si>
+  <si>
+    <t>Divya</t>
+  </si>
+  <si>
+    <t>Esha</t>
+  </si>
+  <si>
+    <t>Roll No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Candara"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -419,7 +670,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Candara"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -429,12 +680,62 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Candara"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Candara"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Candara"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Candara"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u val="double"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Candara"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,8 +772,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -685,12 +998,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D9E0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD1D9E0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD1D9E0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD1D9E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -731,9 +1060,6 @@
     <xf numFmtId="9" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -741,9 +1067,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -771,12 +1094,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -786,10 +1103,87 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="48">
     <dxf>
@@ -10547,22 +10941,22 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Candara">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Candara" panose="020E0502030303020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Jpan" typeface="HGｺﾞｼｯｸM"/>
+        <a:font script="Hang" typeface="HY엽서L"/>
+        <a:font script="Hans" typeface="华文楷体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Arab" typeface="Tahoma"/>
+        <a:font script="Hebr" typeface="Miriam"/>
+        <a:font script="Thai" typeface="DilleniaUPC"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
         <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Cans" typeface="Euphemia"/>
@@ -10579,21 +10973,21 @@
         <a:font script="Laoo" typeface="DokChampa"/>
         <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Candara" panose="020E0502030303020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Jpan" typeface="HGｺﾞｼｯｸM"/>
+        <a:font script="Hang" typeface="HY엽서L"/>
+        <a:font script="Hans" typeface="华文楷体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Arab" typeface="Tahoma"/>
+        <a:font script="Hebr" typeface="Miriam"/>
+        <a:font script="Thai" typeface="DilleniaUPC"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -10777,10 +11171,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -11274,217 +11668,217 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC099FCE-3A70-47FF-88EF-9BA5CCE175C0}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>21</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="18">
         <v>34830</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="25" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>20</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <v>24242</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>30</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <v>27662</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="24">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>25</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>32029</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="25" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="24">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>24</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>20784</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="25" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>23</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>40580</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="24">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>30</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <v>28967</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="25" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+      <c r="A9" s="24">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>26</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <v>33787</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="24">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>25</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="18">
         <v>32975</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="24">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>27</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="18">
         <v>45643</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30">
+      <c r="B12" s="30"/>
+      <c r="C12" s="26">
         <f>SUM(C1:C11)</f>
         <v>251</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="27">
         <f>SUM(D1:D11)</f>
         <v>321499</v>
       </c>
-      <c r="E12" s="32"/>
+      <c r="E12" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11517,754 +11911,754 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="10" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="15"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="18" t="str">
+      <c r="D2" s="17" t="str">
         <f>_xlfn.CONCAT(B2," ",C2)</f>
         <v>Ram  Patel</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="17">
         <v>9301816152</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="17">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="18" t="str">
+      <c r="D3" s="17" t="str">
         <f t="shared" ref="D3:D11" si="0">_xlfn.CONCAT(B3," ",C3)</f>
         <v>Shyam Shah</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="17">
         <v>9655912735</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="17">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="18" t="str">
+      <c r="D4" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Mohan Gehlot</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="17">
         <v>9499232192</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="17">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="18" t="str">
+      <c r="D5" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Naresh Patel</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="17">
         <v>9898481097</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="17">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="18" t="str">
+      <c r="D6" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Geeta Lalwani</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="17">
         <v>9634922929</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="17">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="18" t="str">
+      <c r="D7" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Sita Joshi</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="17">
         <v>9871623223</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="17">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="18" t="str">
+      <c r="D8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>jai Dave</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="17">
         <v>9843807811</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="17">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="18" t="str">
+      <c r="D9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Smit Malhotra</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="17">
         <v>9260225025</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="17">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="18" t="str">
+      <c r="D10" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Dhairya Gehlot</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="17">
         <v>9702164866</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="17">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="18" t="str">
+      <c r="D11" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Om Tripathi</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="17">
         <v>9936045741</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="17">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16">
+      <c r="B12" s="31"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15">
         <f>SUM(N1:N11)</f>
         <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="19" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="17">
         <v>1</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="18" t="str">
+      <c r="D22" s="17" t="str">
         <f>_xlfn.CONCAT(B22," ",C22)</f>
         <v>Ram  Patel</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="17">
         <v>2</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="18" t="str">
+      <c r="D23" s="17" t="str">
         <f t="shared" ref="D23:D31" si="1">_xlfn.CONCAT(B23," ",C23)</f>
         <v>Shyam Shah</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
+      <c r="A24" s="17">
         <v>3</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="18" t="str">
+      <c r="D24" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Mohan Gehlot</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="17" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="A25" s="17">
         <v>4</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="18" t="str">
+      <c r="D25" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Naresh Patel</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="17">
         <v>5</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="18" t="str">
+      <c r="D26" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Geeta Lalwani</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="17" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>6</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="18" t="str">
+      <c r="D27" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Sita Joshi</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="A28" s="17">
         <v>7</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="18" t="str">
+      <c r="D28" s="17" t="str">
         <f t="shared" si="1"/>
         <v>jai Dave</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="A29" s="17">
         <v>8</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="18" t="str">
+      <c r="D29" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Smit Malhotra</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
+      <c r="A30" s="17">
         <v>9</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="18" t="str">
+      <c r="D30" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Dhairya Gehlot</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="17" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+      <c r="A31" s="17">
         <v>10</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="18" t="str">
+      <c r="D31" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Om Tripathi</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12297,164 +12691,164 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>114</v>
       </c>
     </row>
@@ -12473,4 +12867,1358 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868E26DD-11FD-4737-BBCA-63D16D652477}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="9" max="9" width="83.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="39">
+        <v>32000</v>
+      </c>
+      <c r="E8" s="40">
+        <f ca="1">RANDBETWEEN("12-1-26","12-12-26")</f>
+        <v>46133</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="39">
+        <v>45000</v>
+      </c>
+      <c r="E9" s="40">
+        <f t="shared" ref="E9:E28" ca="1" si="0">RANDBETWEEN("12-1-26","12-12-26")</f>
+        <v>46170</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="39">
+        <v>38000</v>
+      </c>
+      <c r="E10" s="40">
+        <f t="shared" ca="1" si="0"/>
+        <v>46088</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="39">
+        <v>52000</v>
+      </c>
+      <c r="E11" s="40">
+        <f t="shared" ca="1" si="0"/>
+        <v>46160</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="39">
+        <v>30000</v>
+      </c>
+      <c r="E12" s="40">
+        <f ca="1">RANDBETWEEN(DATE(2025,1,7),(DATE(2026,12,11)))</f>
+        <v>46038</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="39">
+        <v>50000</v>
+      </c>
+      <c r="E13" s="40">
+        <f t="shared" ref="E13:E28" ca="1" si="1">RANDBETWEEN(DATE(2025,1,7),(DATE(2026,12,11)))</f>
+        <v>46164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="39">
+        <v>45000</v>
+      </c>
+      <c r="E14" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>45705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="39">
+        <v>15000</v>
+      </c>
+      <c r="E15" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="39">
+        <v>25000</v>
+      </c>
+      <c r="E16" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="39">
+        <v>47000</v>
+      </c>
+      <c r="E17" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>46266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="39">
+        <v>13000</v>
+      </c>
+      <c r="E18" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>46326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="39">
+        <v>12000</v>
+      </c>
+      <c r="E19" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>46125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="39">
+        <v>88000</v>
+      </c>
+      <c r="E20" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>45772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="39">
+        <v>45000</v>
+      </c>
+      <c r="E21" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="39">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>46067</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="39">
+        <v>9000</v>
+      </c>
+      <c r="E23" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>46290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="39">
+        <v>32000</v>
+      </c>
+      <c r="E24" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="39">
+        <v>47000</v>
+      </c>
+      <c r="E25" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="39">
+        <v>15000</v>
+      </c>
+      <c r="E26" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>46334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>46009</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBCE2D8-74A5-432A-9E18-A5EBB2534500}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D13:D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="24.25" customWidth="1"/>
+    <col min="6" max="6" width="87.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="47">
+        <v>45000</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="47">
+        <v>1200</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="33"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="47">
+        <v>18000</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="47">
+        <v>62000</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="48">
+        <v>37592</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="48">
+        <v>70052</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="48">
+        <v>50857</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="48">
+        <v>35070</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="48">
+        <v>20266</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="48">
+        <v>68842</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="48">
+        <v>61892</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="48">
+        <v>76221</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="48">
+        <v>52040</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="48">
+        <v>76446</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="48">
+        <v>16533</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="48">
+        <v>27322</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="48">
+        <v>65730</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="48">
+        <v>79246</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="48">
+        <v>25688</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F2:F6"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC53A20E-6CDF-4605-AE91-1E783F778D22}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50">
+        <v>1</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="50">
+        <v>78</v>
+      </c>
+      <c r="D2" s="50">
+        <v>82</v>
+      </c>
+      <c r="E2" s="50">
+        <v>74</v>
+      </c>
+      <c r="F2" s="50">
+        <f>SUM(C2:E2)</f>
+        <v>234</v>
+      </c>
+      <c r="G2" s="52">
+        <f>F2/300</f>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51">
+        <v>2</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="51">
+        <v>65</v>
+      </c>
+      <c r="D3" s="51">
+        <v>70</v>
+      </c>
+      <c r="E3" s="51">
+        <v>68</v>
+      </c>
+      <c r="F3" s="50">
+        <f t="shared" ref="F3:F21" si="0">SUM(C3:E3)</f>
+        <v>203</v>
+      </c>
+      <c r="G3" s="52">
+        <f t="shared" ref="G3:G21" si="1">F3/300</f>
+        <v>0.67666666666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50">
+        <v>3</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="50">
+        <v>90</v>
+      </c>
+      <c r="D4" s="50">
+        <v>88</v>
+      </c>
+      <c r="E4" s="50">
+        <v>92</v>
+      </c>
+      <c r="F4" s="50">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="G4" s="52">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="51">
+        <v>4</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="51">
+        <v>35</v>
+      </c>
+      <c r="D5" s="51">
+        <v>40</v>
+      </c>
+      <c r="E5" s="51">
+        <v>38</v>
+      </c>
+      <c r="F5" s="50">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="G5" s="52">
+        <f t="shared" si="1"/>
+        <v>0.37666666666666665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50">
+        <v>5</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="50">
+        <v>55</v>
+      </c>
+      <c r="D6" s="50">
+        <v>60</v>
+      </c>
+      <c r="E6" s="50">
+        <v>58</v>
+      </c>
+      <c r="F6" s="50">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+      <c r="G6" s="52">
+        <f t="shared" si="1"/>
+        <v>0.57666666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50">
+        <v>6</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="54">
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>70</v>
+      </c>
+      <c r="D7" s="54">
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>59</v>
+      </c>
+      <c r="E7" s="54">
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>64</v>
+      </c>
+      <c r="F7" s="50">
+        <f t="shared" ca="1" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="G7" s="52">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.64333333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="51">
+        <v>7</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="54">
+        <f t="shared" ref="C8:E21" ca="1" si="2">RANDBETWEEN(50,100)</f>
+        <v>56</v>
+      </c>
+      <c r="D8" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="E8" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="F8" s="50">
+        <f t="shared" ca="1" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="G8" s="52">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.73666666666666669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50">
+        <v>8</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="D9" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="E9" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F9" s="50">
+        <f t="shared" ca="1" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="G9" s="52">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.68666666666666665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="51">
+        <v>9</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="D10" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="E10" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="F10" s="50">
+        <f t="shared" ca="1" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="G10" s="52">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50">
+        <v>10</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D11" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="E11" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="F11" s="50">
+        <f t="shared" ca="1" si="0"/>
+        <v>199</v>
+      </c>
+      <c r="G11" s="52">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.66333333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50">
+        <v>11</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="D12" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="E12" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="F12" s="50">
+        <f t="shared" ca="1" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="G12" s="52">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="51">
+        <v>12</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="D13" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="E13" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="F13" s="50">
+        <f t="shared" ca="1" si="0"/>
+        <v>211</v>
+      </c>
+      <c r="G13" s="52">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.70333333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50">
+        <v>13</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="D14" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="E14" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="F14" s="50">
+        <f t="shared" ca="1" si="0"/>
+        <v>213</v>
+      </c>
+      <c r="G14" s="52">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="51">
+        <v>14</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="D15" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="E15" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="F15" s="50">
+        <f t="shared" ca="1" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="G15" s="52">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50">
+        <v>15</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="D16" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="E16" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="F16" s="50">
+        <f t="shared" ca="1" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="G16" s="52">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.77666666666666662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="50">
+        <v>16</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="D17" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="E17" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="F17" s="50">
+        <f t="shared" ca="1" si="0"/>
+        <v>257</v>
+      </c>
+      <c r="G17" s="52">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.85666666666666669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="51">
+        <v>17</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="D18" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="E18" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="F18" s="50">
+        <f t="shared" ca="1" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="G18" s="52">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.77666666666666662</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="50">
+        <v>18</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="D19" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="E19" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="F19" s="50">
+        <f t="shared" ca="1" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="G19" s="52">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.65333333333333332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="51">
+        <v>19</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="D20" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="E20" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="F20" s="50">
+        <f t="shared" ca="1" si="0"/>
+        <v>217</v>
+      </c>
+      <c r="G20" s="52">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.72333333333333338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="50">
+        <v>20</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="D21" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="E21" s="54">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="F21" s="50">
+        <f t="shared" ca="1" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="G21" s="52">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.52666666666666662</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/d.xlsx
+++ b/d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\GIT HUB-dg\Data-Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F68670-5C3A-4352-9061-AFEBDE3A7C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A417834-C3D7-4CA5-936A-535DADE09ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,16 @@
     <sheet name="task" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet6" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet7" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet8" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet9" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet10" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet11" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Sheet9!$B$2:$B$20</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$81:$C$84</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$80</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$81:$D$84</definedName>
@@ -44,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="300">
   <si>
     <t>Month</t>
   </si>
@@ -636,6 +644,318 @@
   </si>
   <si>
     <t>Roll No</t>
+  </si>
+  <si>
+    <t>Invoice No</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>INV001</t>
+  </si>
+  <si>
+    <t>INV002</t>
+  </si>
+  <si>
+    <t>INV003</t>
+  </si>
+  <si>
+    <t>INV004</t>
+  </si>
+  <si>
+    <t>INV005</t>
+  </si>
+  <si>
+    <t>INV006</t>
+  </si>
+  <si>
+    <t>INV007</t>
+  </si>
+  <si>
+    <t>INV008</t>
+  </si>
+  <si>
+    <t>INV009</t>
+  </si>
+  <si>
+    <t>INV010</t>
+  </si>
+  <si>
+    <t>INV011</t>
+  </si>
+  <si>
+    <t>INV012</t>
+  </si>
+  <si>
+    <t>INV013</t>
+  </si>
+  <si>
+    <t>INV014</t>
+  </si>
+  <si>
+    <t>INV015</t>
+  </si>
+  <si>
+    <t>INV016</t>
+  </si>
+  <si>
+    <t>INV017</t>
+  </si>
+  <si>
+    <t>INV018</t>
+  </si>
+  <si>
+    <t>INV019</t>
+  </si>
+  <si>
+    <t>INV020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Sales </t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>MAXIMUM SALES</t>
+  </si>
+  <si>
+    <t>MINIMUM SALES</t>
+  </si>
+  <si>
+    <t>Calculate Total Sales</t>
+  </si>
+  <si>
+    <t>Find Average Sales</t>
+  </si>
+  <si>
+    <t>Identify Highest &amp; Lowest Sale</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>Meena</t>
+  </si>
+  <si>
+    <t>Karan</t>
+  </si>
+  <si>
+    <t>Ritu</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>Neel</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Riya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salary Per Department </t>
+  </si>
+  <si>
+    <t>AVERAGE  SALARY</t>
+  </si>
+  <si>
+    <t>COUNT EMPLOYEES</t>
+  </si>
+  <si>
+    <t>Total salary per department</t>
+  </si>
+  <si>
+    <t>Average salary</t>
+  </si>
+  <si>
+    <t>Count employees</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>Day 5</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>absent</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>O101</t>
+  </si>
+  <si>
+    <t>O102</t>
+  </si>
+  <si>
+    <t>O103</t>
+  </si>
+  <si>
+    <t>O104</t>
+  </si>
+  <si>
+    <t>O105</t>
+  </si>
+  <si>
+    <t>O106</t>
+  </si>
+  <si>
+    <t>O107</t>
+  </si>
+  <si>
+    <t>O108</t>
+  </si>
+  <si>
+    <t>O109</t>
+  </si>
+  <si>
+    <t>O110</t>
+  </si>
+  <si>
+    <t>O111</t>
+  </si>
+  <si>
+    <t>O112</t>
+  </si>
+  <si>
+    <t>O113</t>
+  </si>
+  <si>
+    <t>O114</t>
+  </si>
+  <si>
+    <t>O115</t>
+  </si>
+  <si>
+    <t>O116</t>
+  </si>
+  <si>
+    <t>O117</t>
+  </si>
+  <si>
+    <t>O118</t>
+  </si>
+  <si>
+    <t>O119</t>
+  </si>
+  <si>
+    <t>O120</t>
+  </si>
+  <si>
+    <t>Sales above 10,000</t>
+  </si>
+  <si>
+    <t>Sales above 5000</t>
+  </si>
+  <si>
+    <t>Headphones</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Bharti</t>
+  </si>
+  <si>
+    <t>Chetan</t>
+  </si>
+  <si>
+    <t>Deepa</t>
+  </si>
+  <si>
+    <t>Farhan</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Simran</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>Nisha</t>
+  </si>
+  <si>
+    <t>Count Present days</t>
+  </si>
+  <si>
+    <t>Count Absent days</t>
+  </si>
+  <si>
+    <t>Count sales above 10000</t>
+  </si>
+  <si>
+    <t>Count sales below 5000</t>
+  </si>
+  <si>
+    <t>QUESTIONS</t>
+  </si>
+  <si>
+    <t>Highlight sales &gt; 20000 (Green)</t>
+  </si>
+  <si>
+    <t>Highlight sales &lt; 5000 (Red)</t>
+  </si>
+  <si>
+    <t>Marks ≥ 75 → Green</t>
+  </si>
+  <si>
+    <t>Marks &lt; 40 → Red</t>
+  </si>
+  <si>
+    <t>≥ 50000 → Dark Green</t>
+  </si>
+  <si>
+    <t>30000–49999 → Yellow</t>
+  </si>
+  <si>
+    <t>&lt; 30000 → Light Red</t>
+  </si>
+  <si>
+    <t>Calculate Percentage</t>
+  </si>
+  <si>
+    <t>Format percentage column</t>
+  </si>
+  <si>
+    <t>Apply cell styles to headers</t>
   </si>
 </sst>
 </file>
@@ -644,9 +964,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,12 +1020,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF1F2328"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="0"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -717,11 +1031,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <u val="double"/>
       <sz val="16"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Candara"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -730,12 +1083,40 @@
       <b/>
       <i/>
       <sz val="12"/>
-      <color rgb="FF1F2328"/>
+      <color theme="0"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Candara"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Candara"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,8 +1165,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1013,13 +1412,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1103,6 +1607,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1115,69 +1634,225 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="10" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1185,7 +1860,348 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="66">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="medium">
@@ -10612,8 +11628,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4705350" y="15740062"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5286375" y="15740062"/>
+              <a:ext cx="5181600" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10791,18 +11807,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E330D1A-6157-44C6-8DFB-13E8C740478F}" name="Table1" displayName="Table1" ref="A1:B6" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E330D1A-6157-44C6-8DFB-13E8C740478F}" name="Table1" displayName="Table1" ref="A1:B6" totalsRowShown="0" headerRowDxfId="65" headerRowBorderDxfId="64" tableBorderDxfId="63" totalsRowBorderDxfId="62">
   <autoFilter ref="A1:B6" xr:uid="{8E330D1A-6157-44C6-8DFB-13E8C740478F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{15E89E4E-3D36-4582-BDF1-22E12622A20C}" name="Month" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{583D5BBC-297D-4829-BE1A-99FDCD16AE1F}" name="Attendance (%)" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{15E89E4E-3D36-4582-BDF1-22E12622A20C}" name="Month" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{583D5BBC-297D-4829-BE1A-99FDCD16AE1F}" name="Attendance (%)" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{98F2B13E-4228-4DF5-B815-75D8880FD93A}" name="Table10" displayName="Table10" ref="C145:D149" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1" totalsRowBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{98F2B13E-4228-4DF5-B815-75D8880FD93A}" name="Table10" displayName="Table10" ref="C145:D149" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="C145:D149" xr:uid="{98F2B13E-4228-4DF5-B815-75D8880FD93A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A2FCEA82-50ED-470B-BF51-C725FC7A6828}" name="Purpose"/>
@@ -10812,19 +11828,35 @@
 </table>
 </file>
 
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{99500036-BABF-4CCE-ACAF-6B663278AA99}" name="Table11" displayName="Table11" ref="A7:E27" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+  <autoFilter ref="A7:E27" xr:uid="{99500036-BABF-4CCE-ACAF-6B663278AA99}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{F90DCE9F-7599-4988-BBE9-7FBD2C631A29}" name="Employee ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{7E4AF771-1783-4A4A-959E-B01CF3120C8B}" name="Name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{04C72AD4-4B01-485A-9855-FF811446C550}" name="Department" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{8ADAC1EC-CC40-4215-8C8F-9653D0A490DF}" name="Salary" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{802C4FE3-9986-428E-9BA2-2471B4099947}" name="Joining Date" dataDxfId="1">
+      <calculatedColumnFormula>RANDBETWEEN(DATE(2025,1,7),(DATE(2026,12,11)))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{360DCA38-8507-4BBC-92F9-7AA16ACE046A}" name="Table2" displayName="Table2" ref="B18:C23" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39" totalsRowBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{360DCA38-8507-4BBC-92F9-7AA16ACE046A}" name="Table2" displayName="Table2" ref="B18:C23" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" tableBorderDxfId="57" totalsRowBorderDxfId="56">
   <autoFilter ref="B18:C23" xr:uid="{360DCA38-8507-4BBC-92F9-7AA16ACE046A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{55A28BB6-2D2D-4F42-9DC4-23BD7668B5C1}" name="Subject" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{1511BC29-9781-4A87-BB9E-BC8BD6CB8E38}" name="Marks" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{55A28BB6-2D2D-4F42-9DC4-23BD7668B5C1}" name="Subject" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{1511BC29-9781-4A87-BB9E-BC8BD6CB8E38}" name="Marks" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{410FCCB6-EE89-4A68-AB84-16E439ADCF4F}" name="Table3" displayName="Table3" ref="C35:D39" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{410FCCB6-EE89-4A68-AB84-16E439ADCF4F}" name="Table3" displayName="Table3" ref="C35:D39" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51" totalsRowBorderDxfId="50">
   <autoFilter ref="C35:D39" xr:uid="{410FCCB6-EE89-4A68-AB84-16E439ADCF4F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DBE7AD87-5FC6-4B47-94FA-ED7DC94DAAA4}" name="Batch"/>
@@ -10835,18 +11867,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{412171CB-1961-46A0-AC67-86F17F7F6291}" name="Table4" displayName="Table4" ref="C53:D58" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{412171CB-1961-46A0-AC67-86F17F7F6291}" name="Table4" displayName="Table4" ref="C53:D58" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48" tableBorderDxfId="47" totalsRowBorderDxfId="46">
   <autoFilter ref="C53:D58" xr:uid="{412171CB-1961-46A0-AC67-86F17F7F6291}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7B578EE5-DA0E-4D97-B85D-57645DF33113}" name="Activity" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{E2FDF227-FD3F-4860-90C3-03CA50200A94}" name="Hours" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{7B578EE5-DA0E-4D97-B85D-57645DF33113}" name="Activity" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{E2FDF227-FD3F-4860-90C3-03CA50200A94}" name="Hours" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B44E2809-6C0B-41E4-917B-9B6F08CCEB7F}" name="Table5" displayName="Table5" ref="C67:D71" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B44E2809-6C0B-41E4-917B-9B6F08CCEB7F}" name="Table5" displayName="Table5" ref="C67:D71" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41" totalsRowBorderDxfId="40">
   <autoFilter ref="C67:D71" xr:uid="{B44E2809-6C0B-41E4-917B-9B6F08CCEB7F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C253162F-3462-49C9-BE59-18D6355981BC}" name="Course"/>
@@ -10857,7 +11889,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{690EF64A-821D-4222-9979-F44B59877D52}" name="Table6" displayName="Table6" ref="C80:D84" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{690EF64A-821D-4222-9979-F44B59877D52}" name="Table6" displayName="Table6" ref="C80:D84" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <autoFilter ref="C80:D84" xr:uid="{690EF64A-821D-4222-9979-F44B59877D52}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{AB818A7D-37B7-47FB-A64F-747147D85FCF}" name="Marks Range"/>
@@ -10868,7 +11900,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C2EE29E2-C319-4DEB-A2F4-504AC3B275B2}" name="Table7" displayName="Table7" ref="C95:D99" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C2EE29E2-C319-4DEB-A2F4-504AC3B275B2}" name="Table7" displayName="Table7" ref="C95:D99" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
   <autoFilter ref="C95:D99" xr:uid="{C2EE29E2-C319-4DEB-A2F4-504AC3B275B2}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{97FD6945-EFD6-47CA-B223-726414699CB3}" name="Month"/>
@@ -10879,18 +11911,18 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A50492BB-9F86-4BA5-87EE-F44D87ACDD25}" name="Table8" displayName="Table8" ref="C113:D118" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A50492BB-9F86-4BA5-87EE-F44D87ACDD25}" name="Table8" displayName="Table8" ref="C113:D118" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
   <autoFilter ref="C113:D118" xr:uid="{A50492BB-9F86-4BA5-87EE-F44D87ACDD25}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B96A3A73-8547-4A57-8975-B8EFE22C1581}" name="Year" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{B50FE801-3CF4-4B71-B61E-13805780ECEB}" name="Users" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{B96A3A73-8547-4A57-8975-B8EFE22C1581}" name="Year" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{B50FE801-3CF4-4B71-B61E-13805780ECEB}" name="Users" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D64D67EC-2C73-4D6D-8856-FFA8EF349CD6}" name="Table9" displayName="Table9" ref="C128:D132" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D64D67EC-2C73-4D6D-8856-FFA8EF349CD6}" name="Table9" displayName="Table9" ref="C128:D132" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="C128:D132" xr:uid="{D64D67EC-2C73-4D6D-8856-FFA8EF349CD6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D0647644-7D3F-436F-91B0-6F3C1575525A}" name="Time"/>
@@ -11664,12 +12696,1582 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4192FDC-E748-448F-9F3D-BA74AEB66E96}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="11" max="11" width="25.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="83" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" s="83" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2" s="84">
+        <f>COUNTIF(B2:F2,B2)</f>
+        <v>4</v>
+      </c>
+      <c r="H2" s="84">
+        <f>COUNTIF(B2:F2,C2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="G3" s="84">
+        <f t="shared" ref="G3:G22" si="0">COUNTIF(B3:F3,B3)</f>
+        <v>4</v>
+      </c>
+      <c r="H3" s="84">
+        <f t="shared" ref="H3:H22" si="1">COUNTIF(B3:F3,C3)</f>
+        <v>4</v>
+      </c>
+      <c r="K3" s="85" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" s="84">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="84">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K4" s="86" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="84">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H5" s="84">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K5" s="86" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" s="84">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H6" s="84">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="84">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H7" s="84">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="G8" s="84">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H8" s="84">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="G9" s="84">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H9" s="84">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="84">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="84">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="G11" s="84">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H11" s="84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G12" s="84">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H12" s="84">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="G13" s="84">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H13" s="84">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" s="84">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H14" s="84">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="G15" s="84">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H15" s="84">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16" s="84">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H16" s="84">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="84">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H17" s="84">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="G18" s="84">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H18" s="84">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G19" s="84">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H19" s="84">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="G20" s="84">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H20" s="84">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="G21" s="84">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H21" s="84">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G22" s="84">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H22" s="84">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901DAD4A-A9CC-4FAD-B6EF-B0CF4C32E62F}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" style="49" customWidth="1"/>
+    <col min="2" max="5" width="9" style="49"/>
+    <col min="6" max="6" width="25.375" style="49" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="F1" s="88" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="66">
+        <v>4500</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="F2" s="30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="67">
+        <v>12000</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="F3" s="30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="66">
+        <v>8000</v>
+      </c>
+      <c r="C4" s="41"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="67">
+        <v>25000</v>
+      </c>
+      <c r="C5" s="41"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="66">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="41"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="67">
+        <v>15000</v>
+      </c>
+      <c r="C7" s="41"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="41">
+        <v>14586</v>
+      </c>
+      <c r="C8" s="41"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="41">
+        <v>18216</v>
+      </c>
+      <c r="C9" s="41"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="66" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="41">
+        <v>13899</v>
+      </c>
+      <c r="C10" s="41"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="41">
+        <v>17789</v>
+      </c>
+      <c r="C11" s="41"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="41">
+        <v>9974</v>
+      </c>
+      <c r="C12" s="41"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" s="41">
+        <v>9711</v>
+      </c>
+      <c r="C13" s="41"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="66" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="41">
+        <v>8628</v>
+      </c>
+      <c r="C14" s="41"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="41">
+        <v>9499</v>
+      </c>
+      <c r="C15" s="41"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" s="41">
+        <v>7295</v>
+      </c>
+      <c r="C16" s="41"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" s="41">
+        <v>9559</v>
+      </c>
+      <c r="C17" s="41"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="66" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" s="41">
+        <v>19587</v>
+      </c>
+      <c r="C18" s="41"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" s="41">
+        <v>9705</v>
+      </c>
+      <c r="C19" s="41"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="66" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" s="41">
+        <v>6716</v>
+      </c>
+      <c r="C20" s="41"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="67" t="s">
+        <v>269</v>
+      </c>
+      <c r="B21" s="41">
+        <v>16409</v>
+      </c>
+      <c r="C21" s="41"/>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22" s="41">
+        <f>COUNTIF(B2:B21,"&gt;10000")</f>
+        <v>9</v>
+      </c>
+      <c r="C22" s="41"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="B23" s="41">
+        <f>COUNTIF(B2:B21,"&gt;5000")</f>
+        <v>18</v>
+      </c>
+      <c r="C23" s="41"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B384075E-55CA-48AA-A21F-6E793BD099E0}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="49" customWidth="1"/>
+    <col min="3" max="3" width="9" style="49"/>
+    <col min="4" max="4" width="31.75" style="49" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="68">
+        <v>22000</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="69">
+        <v>3500</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="68">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="69" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="69">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="68" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="68">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="40">
+        <v>23177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="40">
+        <v>24997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="40">
+        <v>21422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="69" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" s="40">
+        <v>38726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="68" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="40">
+        <v>30143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="40">
+        <v>40777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="B13" s="40">
+        <v>13746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="B14" s="40">
+        <v>25495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="69" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15" s="40">
+        <v>49237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="68" t="s">
+        <v>275</v>
+      </c>
+      <c r="B16" s="40">
+        <v>21574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="40">
+        <v>15765</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="B18" s="40">
+        <v>31757</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="B19" s="40">
+        <v>47657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="69" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" s="40">
+        <v>26109</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:B20" xr:uid="{B384075E-55CA-48AA-A21F-6E793BD099E0}"/>
+  <conditionalFormatting sqref="B2:B20">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+      <formula>5000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+      <formula>20000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38E3FEA-D3C3-4960-A12C-594D84D167ED}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="31.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="90" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="71">
+        <v>1</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="71">
+        <v>85</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="72">
+        <v>2</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="72">
+        <v>72</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="71">
+        <v>3</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="71">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="72">
+        <v>4</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="72">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="71">
+        <v>5</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="71">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="71">
+        <v>6</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="72">
+        <v>7</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="71">
+        <v>8</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="41">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="72">
+        <v>9</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="41">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="71">
+        <v>10</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="71">
+        <v>11</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="41">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="72">
+        <v>12</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="71">
+        <v>13</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="41">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="72">
+        <v>14</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="41">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="71">
+        <v>15</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="41">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="71">
+        <v>16</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="41">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="72">
+        <v>17</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="71">
+        <v>18</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="41">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="72">
+        <v>19</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="41">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="71">
+        <v>20</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="70"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="61"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="61"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C21">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+      <formula>40</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
+      <formula>75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F003E11-8E65-4C57-A1AA-6BC886D81A2F}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="29.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="91" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="91">
+        <v>28000</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" s="73">
+        <v>34000</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="91" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="91">
+        <v>51000</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="73" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="73">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="91">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="91" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="92">
+        <v>38491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="92">
+        <v>16328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="74" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="92">
+        <v>49300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="92">
+        <v>34855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="92">
+        <v>40282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="92">
+        <v>39196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="74" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="92">
+        <v>33033</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="92">
+        <v>16790</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="92">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="92">
+        <v>18039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="92">
+        <v>16555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="92">
+        <v>40878</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" s="92">
+        <v>19696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="92">
+        <v>23518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="77"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="76"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B20">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+      <formula>30000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+      <formula>50000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+      <formula>50000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
+      <formula>50000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC099FCE-3A70-47FF-88EF-9BA5CCE175C0}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="B5" sqref="B5:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11866,10 +14468,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="26">
         <f>SUM(C1:C11)</f>
         <v>251</v>
@@ -12396,10 +14998,10 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="31"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -12647,8 +15249,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
@@ -12871,10 +15473,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868E26DD-11FD-4737-BBCA-63D16D652477}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12887,427 +15489,440 @@
     <col min="9" max="9" width="83.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="114" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="116" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="108">
         <v>32000</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="109">
         <f ca="1">RANDBETWEEN("12-1-26","12-12-26")</f>
+        <v>46339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="107" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="108">
+        <v>45000</v>
+      </c>
+      <c r="E9" s="109">
+        <f t="shared" ref="E9:E11" ca="1" si="0">RANDBETWEEN("12-1-26","12-12-26")</f>
+        <v>46103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="106" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="108">
+        <v>38000</v>
+      </c>
+      <c r="E10" s="109">
+        <f t="shared" ca="1" si="0"/>
+        <v>46301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="106" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="107" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="108">
+        <v>52000</v>
+      </c>
+      <c r="E11" s="109">
+        <f t="shared" ca="1" si="0"/>
+        <v>46094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="106" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="108">
+        <v>30000</v>
+      </c>
+      <c r="E12" s="109">
+        <f ca="1">RANDBETWEEN(DATE(2025,1,7),(DATE(2026,12,11)))</f>
+        <v>46092</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="107" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="108">
+        <v>50000</v>
+      </c>
+      <c r="E13" s="109">
+        <f t="shared" ref="E13:E28" ca="1" si="1">RANDBETWEEN(DATE(2025,1,7),(DATE(2026,12,11)))</f>
+        <v>46226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="106" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="107" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="108">
+        <v>45000</v>
+      </c>
+      <c r="E14" s="109">
+        <f t="shared" ca="1" si="1"/>
+        <v>46085</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="106" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="108">
+        <v>15000</v>
+      </c>
+      <c r="E15" s="109">
+        <f t="shared" ca="1" si="1"/>
+        <v>45930</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="106" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="108">
+        <v>25000</v>
+      </c>
+      <c r="E16" s="109">
+        <f t="shared" ca="1" si="1"/>
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="106" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="108">
+        <v>47000</v>
+      </c>
+      <c r="E17" s="109">
+        <f t="shared" ca="1" si="1"/>
+        <v>45965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="108">
+        <v>13000</v>
+      </c>
+      <c r="E18" s="109">
+        <f t="shared" ca="1" si="1"/>
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="108">
+        <v>12000</v>
+      </c>
+      <c r="E19" s="109">
+        <f t="shared" ca="1" si="1"/>
+        <v>46104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="106" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="108">
+        <v>88000</v>
+      </c>
+      <c r="E20" s="109">
+        <f t="shared" ca="1" si="1"/>
         <v>46133</v>
       </c>
-      <c r="I8" s="42" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="107" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="108">
+        <v>45000</v>
+      </c>
+      <c r="E21" s="109">
+        <f t="shared" ca="1" si="1"/>
+        <v>46367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="106" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="107" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="108">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="109">
+        <f t="shared" ca="1" si="1"/>
+        <v>46321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="106" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="107" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="108">
+        <v>9000</v>
+      </c>
+      <c r="E23" s="109">
+        <f t="shared" ca="1" si="1"/>
+        <v>45990</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="108">
+        <v>32000</v>
+      </c>
+      <c r="E24" s="109">
+        <f t="shared" ca="1" si="1"/>
+        <v>45903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="106" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="107" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="108">
+        <v>47000</v>
+      </c>
+      <c r="E25" s="109">
+        <f t="shared" ca="1" si="1"/>
+        <v>46169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="108">
+        <v>15000</v>
+      </c>
+      <c r="E26" s="109">
+        <f t="shared" ca="1" si="1"/>
+        <v>45981</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="111" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="117"/>
+      <c r="E27" s="112">
+        <f t="shared" ca="1" si="1"/>
+        <v>46346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="102"/>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="104" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="I39" s="105" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="39">
-        <v>45000</v>
-      </c>
-      <c r="E9" s="40">
-        <f t="shared" ref="E9:E28" ca="1" si="0">RANDBETWEEN("12-1-26","12-12-26")</f>
-        <v>46170</v>
-      </c>
-      <c r="I9" s="42" t="s">
+    <row r="40" spans="9:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="I40" s="105" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="39">
-        <v>38000</v>
-      </c>
-      <c r="E10" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>46088</v>
-      </c>
-      <c r="I10" s="42" t="s">
+    <row r="41" spans="9:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="I41" s="105" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="39">
-        <v>52000</v>
-      </c>
-      <c r="E11" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>46160</v>
-      </c>
-      <c r="I11" s="42" t="s">
+    <row r="42" spans="9:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="I42" s="105" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="39">
-        <v>30000</v>
-      </c>
-      <c r="E12" s="40">
-        <f ca="1">RANDBETWEEN(DATE(2025,1,7),(DATE(2026,12,11)))</f>
-        <v>46038</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="39">
-        <v>50000</v>
-      </c>
-      <c r="E13" s="40">
-        <f t="shared" ref="E13:E28" ca="1" si="1">RANDBETWEEN(DATE(2025,1,7),(DATE(2026,12,11)))</f>
-        <v>46164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="39">
-        <v>45000</v>
-      </c>
-      <c r="E14" s="40">
-        <f t="shared" ca="1" si="1"/>
-        <v>45705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="39">
-        <v>15000</v>
-      </c>
-      <c r="E15" s="40">
-        <f t="shared" ca="1" si="1"/>
-        <v>45895</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="39">
-        <v>25000</v>
-      </c>
-      <c r="E16" s="40">
-        <f t="shared" ca="1" si="1"/>
-        <v>45717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="39">
-        <v>47000</v>
-      </c>
-      <c r="E17" s="40">
-        <f t="shared" ca="1" si="1"/>
-        <v>46266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="39">
-        <v>13000</v>
-      </c>
-      <c r="E18" s="40">
-        <f t="shared" ca="1" si="1"/>
-        <v>46326</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="39">
-        <v>12000</v>
-      </c>
-      <c r="E19" s="40">
-        <f t="shared" ca="1" si="1"/>
-        <v>46125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="39">
-        <v>88000</v>
-      </c>
-      <c r="E20" s="40">
-        <f t="shared" ca="1" si="1"/>
-        <v>45772</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="39">
-        <v>45000</v>
-      </c>
-      <c r="E21" s="40">
-        <f t="shared" ca="1" si="1"/>
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="39">
-        <v>20000</v>
-      </c>
-      <c r="E22" s="40">
-        <f t="shared" ca="1" si="1"/>
-        <v>46067</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="39">
-        <v>9000</v>
-      </c>
-      <c r="E23" s="40">
-        <f t="shared" ca="1" si="1"/>
-        <v>46290</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="39">
-        <v>32000</v>
-      </c>
-      <c r="E24" s="40">
-        <f t="shared" ca="1" si="1"/>
-        <v>45824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="39">
-        <v>47000</v>
-      </c>
-      <c r="E25" s="40">
-        <f t="shared" ca="1" si="1"/>
-        <v>45866</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="39">
-        <v>15000</v>
-      </c>
-      <c r="E26" s="40">
-        <f t="shared" ca="1" si="1"/>
-        <v>45691</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="40">
-        <f t="shared" ca="1" si="1"/>
-        <v>46334</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="40">
-        <f t="shared" ca="1" si="1"/>
-        <v>46009</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C3"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -13316,7 +15931,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D13:D20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13328,297 +15943,300 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="F1" s="99" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="100" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="32">
         <v>45000</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="101"/>
     </row>
     <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="32">
         <v>1200</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="101"/>
     </row>
     <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="32">
         <v>18000</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="101"/>
     </row>
     <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="32">
         <v>62000</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F6" s="33"/>
+      <c r="F6" s="101"/>
     </row>
     <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="33">
         <v>37592</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="29" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="33">
         <v>70052</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="29" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="33">
         <v>50857</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="29" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="33">
         <v>35070</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="29" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="33">
         <v>20266</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="29" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="33">
         <v>68842</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="29" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="33">
         <v>61892</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="29" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="33">
         <v>76221</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="29" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="33">
         <v>52040</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="29" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="33">
         <v>76446</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="29" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="33">
         <v>16533</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="29" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="33">
         <v>27322</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="29" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="33">
         <v>65730</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="29" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="33">
         <v>79246</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="29" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="33">
         <v>25688</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="29" t="s">
         <v>131</v>
       </c>
     </row>
@@ -13627,17 +16245,17 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F2:F6"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC53A20E-6CDF-4605-AE91-1E783F778D22}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13648,577 +16266,1150 @@
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="6" width="13.375" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="10" max="10" width="57.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:10" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="94" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50">
+    <row r="2" spans="1:10" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="74">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="74">
         <v>78</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="74">
         <v>82</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="74">
         <v>74</v>
       </c>
-      <c r="F2" s="50">
-        <f>SUM(C2:E2)</f>
+      <c r="F2" s="74">
         <v>234</v>
       </c>
-      <c r="G2" s="52">
-        <f>F2/300</f>
+      <c r="G2" s="96">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51">
+      <c r="J2" s="95" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="74">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="74">
         <v>65</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="74">
         <v>70</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="74">
         <v>68</v>
       </c>
-      <c r="F3" s="50">
-        <f t="shared" ref="F3:F21" si="0">SUM(C3:E3)</f>
+      <c r="F3" s="74">
         <v>203</v>
       </c>
-      <c r="G3" s="52">
-        <f t="shared" ref="G3:G21" si="1">F3/300</f>
+      <c r="G3" s="96">
         <v>0.67666666666666664</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50">
+      <c r="J3" s="30" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="74">
         <v>3</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="74">
         <v>90</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="74">
         <v>88</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="74">
         <v>92</v>
       </c>
-      <c r="F4" s="50">
-        <f t="shared" si="0"/>
+      <c r="F4" s="74">
         <v>270</v>
       </c>
-      <c r="G4" s="52">
-        <f t="shared" si="1"/>
+      <c r="G4" s="96">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51">
+      <c r="J4" s="30" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="74">
         <v>4</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="74">
         <v>35</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="74">
         <v>40</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="74">
         <v>38</v>
       </c>
-      <c r="F5" s="50">
-        <f t="shared" si="0"/>
+      <c r="F5" s="74">
         <v>113</v>
       </c>
-      <c r="G5" s="52">
-        <f t="shared" si="1"/>
+      <c r="G5" s="96">
         <v>0.37666666666666665</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50">
+      <c r="J5" s="30" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="74">
         <v>5</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="74">
         <v>55</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="74">
         <v>60</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="74">
         <v>58</v>
       </c>
-      <c r="F6" s="50">
-        <f t="shared" si="0"/>
+      <c r="F6" s="74">
         <v>173</v>
       </c>
-      <c r="G6" s="52">
-        <f t="shared" si="1"/>
+      <c r="G6" s="96">
         <v>0.57666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50">
+    <row r="7" spans="1:10" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="74">
         <v>6</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="54">
-        <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>70</v>
-      </c>
-      <c r="D7" s="54">
-        <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>59</v>
-      </c>
-      <c r="E7" s="54">
-        <f ca="1">RANDBETWEEN(50,100)</f>
+      <c r="C7" s="97">
+        <v>100</v>
+      </c>
+      <c r="D7" s="97">
+        <v>67</v>
+      </c>
+      <c r="E7" s="97">
+        <v>92</v>
+      </c>
+      <c r="F7" s="74">
+        <v>259</v>
+      </c>
+      <c r="G7" s="96">
+        <v>0.86333333333333329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="74">
+        <v>7</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="97">
+        <v>56</v>
+      </c>
+      <c r="D8" s="97">
         <v>64</v>
       </c>
-      <c r="F7" s="50">
-        <f t="shared" ca="1" si="0"/>
-        <v>193</v>
-      </c>
-      <c r="G7" s="52">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.64333333333333331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51">
-        <v>7</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="54">
-        <f t="shared" ref="C8:E21" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>56</v>
-      </c>
-      <c r="D8" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>91</v>
-      </c>
-      <c r="E8" s="54">
-        <f t="shared" ca="1" si="2"/>
+      <c r="E8" s="97">
+        <v>90</v>
+      </c>
+      <c r="F8" s="74">
+        <v>210</v>
+      </c>
+      <c r="G8" s="96">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="74">
+        <v>8</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="97">
+        <v>98</v>
+      </c>
+      <c r="D9" s="97">
+        <v>88</v>
+      </c>
+      <c r="E9" s="97">
+        <v>58</v>
+      </c>
+      <c r="F9" s="74">
+        <v>244</v>
+      </c>
+      <c r="G9" s="96">
+        <v>0.81333333333333335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="74">
+        <v>9</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="97">
+        <v>72</v>
+      </c>
+      <c r="D10" s="97">
+        <v>63</v>
+      </c>
+      <c r="E10" s="97">
+        <v>79</v>
+      </c>
+      <c r="F10" s="74">
+        <v>214</v>
+      </c>
+      <c r="G10" s="96">
+        <v>0.71333333333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="74">
+        <v>10</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="97">
+        <v>54</v>
+      </c>
+      <c r="D11" s="97">
+        <v>99</v>
+      </c>
+      <c r="E11" s="97">
+        <v>97</v>
+      </c>
+      <c r="F11" s="74">
+        <v>250</v>
+      </c>
+      <c r="G11" s="96">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="74">
+        <v>11</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="97">
+        <v>54</v>
+      </c>
+      <c r="D12" s="97">
+        <v>83</v>
+      </c>
+      <c r="E12" s="97">
+        <v>57</v>
+      </c>
+      <c r="F12" s="74">
+        <v>194</v>
+      </c>
+      <c r="G12" s="96">
+        <v>0.64666666666666661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="74">
+        <v>12</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="97">
+        <v>80</v>
+      </c>
+      <c r="D13" s="97">
+        <v>79</v>
+      </c>
+      <c r="E13" s="97">
+        <v>77</v>
+      </c>
+      <c r="F13" s="74">
+        <v>236</v>
+      </c>
+      <c r="G13" s="96">
+        <v>0.78666666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="74">
+        <v>13</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="97">
+        <v>88</v>
+      </c>
+      <c r="D14" s="97">
+        <v>87</v>
+      </c>
+      <c r="E14" s="97">
+        <v>93</v>
+      </c>
+      <c r="F14" s="74">
+        <v>268</v>
+      </c>
+      <c r="G14" s="96">
+        <v>0.89333333333333331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="74">
+        <v>14</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="97">
+        <v>88</v>
+      </c>
+      <c r="D15" s="97">
+        <v>97</v>
+      </c>
+      <c r="E15" s="97">
+        <v>77</v>
+      </c>
+      <c r="F15" s="74">
+        <v>262</v>
+      </c>
+      <c r="G15" s="96">
+        <v>0.87333333333333329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="74">
+        <v>15</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="97">
+        <v>82</v>
+      </c>
+      <c r="D16" s="97">
+        <v>99</v>
+      </c>
+      <c r="E16" s="97">
+        <v>66</v>
+      </c>
+      <c r="F16" s="74">
+        <v>247</v>
+      </c>
+      <c r="G16" s="96">
+        <v>0.82333333333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="74">
+        <v>16</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="97">
+        <v>97</v>
+      </c>
+      <c r="D17" s="97">
+        <v>94</v>
+      </c>
+      <c r="E17" s="97">
+        <v>95</v>
+      </c>
+      <c r="F17" s="74">
+        <v>286</v>
+      </c>
+      <c r="G17" s="96">
+        <v>0.95333333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="74">
+        <v>17</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="97">
+        <v>95</v>
+      </c>
+      <c r="D18" s="97">
+        <v>73</v>
+      </c>
+      <c r="E18" s="97">
+        <v>52</v>
+      </c>
+      <c r="F18" s="74">
+        <v>220</v>
+      </c>
+      <c r="G18" s="96">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="74">
+        <v>18</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="97">
+        <v>87</v>
+      </c>
+      <c r="D19" s="97">
+        <v>73</v>
+      </c>
+      <c r="E19" s="97">
+        <v>92</v>
+      </c>
+      <c r="F19" s="74">
+        <v>252</v>
+      </c>
+      <c r="G19" s="96">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="74">
+        <v>19</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="97">
+        <v>61</v>
+      </c>
+      <c r="D20" s="97">
+        <v>67</v>
+      </c>
+      <c r="E20" s="97">
+        <v>75</v>
+      </c>
+      <c r="F20" s="74">
+        <v>203</v>
+      </c>
+      <c r="G20" s="96">
+        <v>0.67666666666666664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="74">
+        <v>20</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="97">
+        <v>63</v>
+      </c>
+      <c r="D21" s="97">
+        <v>95</v>
+      </c>
+      <c r="E21" s="97">
         <v>74</v>
       </c>
-      <c r="F8" s="50">
-        <f t="shared" ca="1" si="0"/>
-        <v>221</v>
-      </c>
-      <c r="G8" s="52">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.73666666666666669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50">
-        <v>8</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="D9" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="E9" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="F9" s="50">
-        <f t="shared" ca="1" si="0"/>
-        <v>206</v>
-      </c>
-      <c r="G9" s="52">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.68666666666666665</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51">
-        <v>9</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="D10" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="E10" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="F10" s="50">
-        <f t="shared" ca="1" si="0"/>
-        <v>216</v>
-      </c>
-      <c r="G10" s="52">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50">
-        <v>10</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="D11" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="E11" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="F11" s="50">
-        <f t="shared" ca="1" si="0"/>
-        <v>199</v>
-      </c>
-      <c r="G11" s="52">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.66333333333333333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50">
-        <v>11</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="D12" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="E12" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="F12" s="50">
-        <f t="shared" ca="1" si="0"/>
-        <v>228</v>
-      </c>
-      <c r="G12" s="52">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51">
-        <v>12</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>87</v>
-      </c>
-      <c r="D13" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="E13" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="F13" s="50">
-        <f t="shared" ca="1" si="0"/>
-        <v>211</v>
-      </c>
-      <c r="G13" s="52">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.70333333333333337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50">
-        <v>13</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="D14" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="E14" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="F14" s="50">
-        <f t="shared" ca="1" si="0"/>
-        <v>213</v>
-      </c>
-      <c r="G14" s="52">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51">
-        <v>14</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="D15" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="E15" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="F15" s="50">
-        <f t="shared" ca="1" si="0"/>
-        <v>220</v>
-      </c>
-      <c r="G15" s="52">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.73333333333333328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50">
-        <v>15</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="D16" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="E16" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="F16" s="50">
-        <f t="shared" ca="1" si="0"/>
-        <v>233</v>
-      </c>
-      <c r="G16" s="52">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.77666666666666662</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50">
-        <v>16</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="D17" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>98</v>
-      </c>
-      <c r="E17" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="F17" s="50">
-        <f t="shared" ca="1" si="0"/>
-        <v>257</v>
-      </c>
-      <c r="G17" s="52">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.85666666666666669</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="51">
-        <v>17</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="D18" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>63</v>
-      </c>
-      <c r="E18" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="F18" s="50">
-        <f t="shared" ca="1" si="0"/>
-        <v>233</v>
-      </c>
-      <c r="G18" s="52">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.77666666666666662</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50">
-        <v>18</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="D19" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="E19" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="F19" s="50">
-        <f t="shared" ca="1" si="0"/>
-        <v>196</v>
-      </c>
-      <c r="G19" s="52">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.65333333333333332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="51">
-        <v>19</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="D20" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="E20" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>63</v>
-      </c>
-      <c r="F20" s="50">
-        <f t="shared" ca="1" si="0"/>
-        <v>217</v>
-      </c>
-      <c r="G20" s="52">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.72333333333333338</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50">
-        <v>20</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="D21" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="E21" s="54">
-        <f t="shared" ca="1" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="F21" s="50">
-        <f t="shared" ca="1" si="0"/>
-        <v>158</v>
-      </c>
-      <c r="G21" s="52">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.52666666666666662</v>
-      </c>
+      <c r="F21" s="74">
+        <v>232</v>
+      </c>
+      <c r="G21" s="96">
+        <v>0.77333333333333332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="98"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C80D77-B68A-4EC5-BE7C-9162C95A2F9C}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="51.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="93" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="43">
+        <v>45292</v>
+      </c>
+      <c r="C2" s="42">
+        <v>12000</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="43">
+        <v>45293</v>
+      </c>
+      <c r="C3" s="44">
+        <v>25000</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="43">
+        <v>45294</v>
+      </c>
+      <c r="C4" s="42">
+        <v>8000</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="43">
+        <v>45295</v>
+      </c>
+      <c r="C5" s="44">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="43">
+        <v>45296</v>
+      </c>
+      <c r="C6" s="42">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="43">
+        <v>45297</v>
+      </c>
+      <c r="C7" s="45">
+        <v>12315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="43">
+        <v>45298</v>
+      </c>
+      <c r="C8" s="45">
+        <v>10236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="43">
+        <v>45299</v>
+      </c>
+      <c r="C9" s="45">
+        <v>16057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="43">
+        <v>45300</v>
+      </c>
+      <c r="C10" s="45">
+        <v>16594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="43">
+        <v>45301</v>
+      </c>
+      <c r="C11" s="45">
+        <v>17379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="43">
+        <v>45302</v>
+      </c>
+      <c r="C12" s="45">
+        <v>11329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="43">
+        <v>45303</v>
+      </c>
+      <c r="C13" s="45">
+        <v>12045</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="43">
+        <v>45304</v>
+      </c>
+      <c r="C14" s="45">
+        <v>15308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="43">
+        <v>45305</v>
+      </c>
+      <c r="C15" s="45">
+        <v>12462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="43">
+        <v>45306</v>
+      </c>
+      <c r="C16" s="45">
+        <v>19413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="43">
+        <v>45307</v>
+      </c>
+      <c r="C17" s="45">
+        <v>11515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="43">
+        <v>45308</v>
+      </c>
+      <c r="C18" s="45">
+        <v>15144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="43">
+        <v>45309</v>
+      </c>
+      <c r="C19" s="45">
+        <v>16758</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" s="43">
+        <v>45310</v>
+      </c>
+      <c r="C20" s="45">
+        <v>17701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="43">
+        <v>45311</v>
+      </c>
+      <c r="C21" s="45">
+        <v>17183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="45">
+        <f>SUM(C2:C21)</f>
+        <v>313439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47">
+        <f>AVERAGE(C2:C20)</f>
+        <v>15592.421052631578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46">
+        <f>MAX(C2:C21)</f>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46">
+        <f>MIN(C2:D21)</f>
+        <v>8000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A73BC4-CEAD-43CF-B7F0-BC5B190DB428}">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="14" style="39" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="9" style="39"/>
+    <col min="5" max="5" width="7.25" style="39" customWidth="1"/>
+    <col min="6" max="6" width="9" style="39"/>
+    <col min="7" max="7" width="11.25" style="39" customWidth="1"/>
+    <col min="8" max="8" width="9" style="39"/>
+    <col min="9" max="9" width="29.375" style="39" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="60">
+        <v>42000</v>
+      </c>
+      <c r="I2" s="64" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="60">
+        <v>38000</v>
+      </c>
+      <c r="I3" s="65" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="61">
+        <v>32156</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="61">
+        <v>35497</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="61">
+        <v>9813</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="61">
+        <v>45331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="60">
+        <v>28000</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" s="57"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="60">
+        <v>30000</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="55">
+        <f>SUMIF(B2:B20,B8,C2:C20)</f>
+        <v>187011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="61">
+        <v>23252</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="54">
+        <f>SUMIF(B2:B20,B7,C2:C20)</f>
+        <v>202797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="61">
+        <v>38598</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="54">
+        <f>SUMIF(B2:B20,B15,C2:C20)</f>
+        <v>201570</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="61">
+        <v>29403</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="G12" s="56">
+        <f>SUM(G9:G11)</f>
+        <v>591378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="61">
+        <v>22332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="61">
+        <v>15426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="60">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="60">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="61">
+        <v>11931</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="61">
+        <v>31449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="61">
+        <v>43744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="61">
+        <v>19446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63">
+        <f>SUM(C2:C20)</f>
+        <v>591378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63">
+        <f>AVERAGE(C2:C20)</f>
+        <v>31125.157894736843</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63">
+        <f>COUNT(A2:C20)</f>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C20">
+    <sortCondition ref="B3:B20"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>